--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_SAV_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c201_SAV_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2694" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6286" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -367,10 +391,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="3" t="s">
+      <c r="J8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -414,28 +438,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="3">
+      <c r="A10" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="3">
+      <c r="B10" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="3">
+      <c r="C10" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="3">
+      <c r="E10" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="3">
+      <c r="F10" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="3">
+      <c r="G10" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="3">
+      <c r="H10" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -460,28 +484,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="3">
+      <c r="B12" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="3">
+      <c r="C12" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="3">
+      <c r="D12" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="3">
+      <c r="E12" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="3">
+      <c r="F12" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="3">
+      <c r="G12" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="3">
+      <c r="H12" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="3">
+      <c r="I12" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -569,10 +593,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="J15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -616,28 +640,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="3">
+      <c r="C17" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -662,28 +686,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="3">
+      <c r="I19" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -771,10 +795,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -818,28 +842,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="3">
+      <c r="C24" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -864,28 +888,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="3">
+      <c r="I26" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -973,10 +997,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="3" t="s">
+      <c r="J29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1020,28 +1044,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="3">
+      <c r="A31" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="3">
+      <c r="B31" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="3">
+      <c r="C31" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="3">
+      <c r="E31" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="3">
+      <c r="F31" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="3">
+      <c r="G31" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="3">
+      <c r="H31" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1066,28 +1090,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="3">
+      <c r="I33" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1175,10 +1199,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1222,28 +1246,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="A38" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="3">
+      <c r="C38" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1268,28 +1292,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="3">
+      <c r="I40" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1377,10 +1401,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K43" s="3" t="s">
+      <c r="J43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1424,28 +1448,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="3">
+      <c r="A45" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="3">
+      <c r="B45" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D45" t="s" s="3">
+      <c r="C45" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D45" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="3">
+      <c r="E45" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="3">
+      <c r="F45" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="3">
+      <c r="G45" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="3">
+      <c r="H45" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1470,28 +1494,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="3">
+      <c r="I47" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1579,10 +1603,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="3" t="s">
+      <c r="J50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1626,28 +1650,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="3">
+      <c r="A52" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="3">
+      <c r="C52" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1672,28 +1696,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="3">
+      <c r="B54" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="3">
+      <c r="C54" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="3">
+      <c r="D54" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="3">
+      <c r="E54" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="3">
+      <c r="F54" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="3">
+      <c r="G54" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="3">
+      <c r="H54" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="3">
+      <c r="I54" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1781,10 +1805,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="J57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1828,28 +1852,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="3">
+      <c r="A59" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="B59" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="3">
+      <c r="C59" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="3">
+      <c r="F59" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="3">
+      <c r="G59" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="3">
+      <c r="H59" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1874,28 +1898,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="3">
+      <c r="C61" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="3">
+      <c r="D61" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="3">
+      <c r="I61" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1983,10 +2007,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="J64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2030,28 +2054,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="3">
+      <c r="C66" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2076,28 +2100,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2185,10 +2209,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="3" t="s">
+      <c r="J71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2232,28 +2256,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="3">
+      <c r="A73" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="3">
+      <c r="C73" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2278,28 +2302,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="C75" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="3">
+      <c r="D75" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="3">
+      <c r="I75" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2387,10 +2411,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3" t="s">
+      <c r="J78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2434,28 +2458,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="A80" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2480,28 +2504,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="3">
+      <c r="I82" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2589,10 +2613,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="3" t="s">
+      <c r="J85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2636,28 +2660,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="3">
+      <c r="A87" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="3">
+      <c r="C87" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2682,28 +2706,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="3">
+      <c r="C89" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="3">
+      <c r="D89" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="3">
+      <c r="I89" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2791,10 +2815,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="3" t="s">
+      <c r="J92" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2838,28 +2862,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="3">
+      <c r="A94" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="3">
+      <c r="C94" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2884,28 +2908,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="3">
+      <c r="C96" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="3">
+      <c r="D96" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="3">
+      <c r="I96" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2993,10 +3017,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="3" t="s">
+      <c r="J99" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3040,28 +3064,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="3">
+      <c r="A101" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="3">
+      <c r="C101" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3086,28 +3110,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="3">
+      <c r="B103" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="3">
+      <c r="C103" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="3">
+      <c r="D103" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="3">
+      <c r="E103" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="3">
+      <c r="F103" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="3">
+      <c r="G103" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="3">
+      <c r="H103" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="3">
+      <c r="I103" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3195,10 +3219,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="3" t="s">
+      <c r="J106" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3242,28 +3266,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="3">
+      <c r="A108" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="3">
+      <c r="C108" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3288,28 +3312,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="3">
+      <c r="B110" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="3">
+      <c r="C110" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="3">
+      <c r="D110" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="3">
+      <c r="E110" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="3">
+      <c r="F110" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="3">
+      <c r="G110" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="3">
+      <c r="H110" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="3">
+      <c r="I110" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3397,10 +3421,10 @@
       <c r="I113">
         <f>((C113-C112)^2+(D113- D112)^2)^.5</f>
       </c>
-      <c r="J113" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K113" s="3" t="s">
+      <c r="J113" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K113" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L113" t="n">
@@ -3444,28 +3468,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="s" s="3">
+      <c r="A115" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B115" t="s" s="3">
+      <c r="B115" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C115" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D115" t="s" s="3">
+      <c r="C115" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D115" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E115" t="s" s="3">
+      <c r="E115" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F115" t="s" s="3">
+      <c r="F115" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G115" t="s" s="3">
+      <c r="G115" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H115" t="s" s="3">
+      <c r="H115" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3490,28 +3514,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I117" t="s" s="3">
+      <c r="I117" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3599,10 +3623,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="3" t="s">
+      <c r="J120" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3646,28 +3670,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="3">
+      <c r="A122" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="3">
+      <c r="C122" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3692,28 +3716,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="3">
+      <c r="C124" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="3">
+      <c r="D124" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="3">
+      <c r="I124" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3801,10 +3825,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="3" t="s">
+      <c r="J127" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3848,28 +3872,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="3">
+      <c r="A129" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="3">
+      <c r="B129" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="3">
+      <c r="C129" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="3">
+      <c r="E129" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="3">
+      <c r="F129" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="3">
+      <c r="G129" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="3">
+      <c r="H129" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3894,28 +3918,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="3">
+      <c r="B131" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="3">
+      <c r="C131" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="3">
+      <c r="D131" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="3">
+      <c r="E131" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="3">
+      <c r="F131" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="3">
+      <c r="G131" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="3">
+      <c r="H131" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="3">
+      <c r="I131" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4003,10 +4027,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="3" t="s">
+      <c r="J134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4050,28 +4074,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="3">
+      <c r="C136" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4096,28 +4120,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4205,10 +4229,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K141" s="3" t="s">
+      <c r="J141" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K141" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4252,28 +4276,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="3">
+      <c r="A143" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="3">
+      <c r="B143" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D143" t="s" s="3">
+      <c r="C143" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D143" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="3">
+      <c r="E143" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="3">
+      <c r="F143" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="3">
+      <c r="G143" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="3">
+      <c r="H143" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4298,28 +4322,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="3">
+      <c r="D145" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="3">
+      <c r="I145" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4407,10 +4431,10 @@
       <c r="I148">
         <f>((C148-C147)^2+(D148- D147)^2)^.5</f>
       </c>
-      <c r="J148" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K148" s="3" t="s">
+      <c r="J148" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K148" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L148" t="n">
@@ -4454,28 +4478,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="s" s="3">
+      <c r="A150" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B150" t="s" s="3">
+      <c r="B150" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C150" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D150" t="s" s="3">
+      <c r="C150" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D150" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F150" t="s" s="3">
+      <c r="F150" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G150" t="s" s="3">
+      <c r="G150" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H150" t="s" s="3">
+      <c r="H150" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4500,28 +4524,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="B152" t="s" s="3">
+      <c r="B152" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C152" t="s" s="3">
+      <c r="C152" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D152" t="s" s="3">
+      <c r="D152" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F152" t="s" s="3">
+      <c r="F152" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G152" t="s" s="3">
+      <c r="G152" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H152" t="s" s="3">
+      <c r="H152" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I152" t="s" s="3">
+      <c r="I152" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4638,10 +4662,10 @@
       <c r="I156">
         <f>((C156-C155)^2+(D156- D155)^2)^.5</f>
       </c>
-      <c r="J156" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K156" s="3" t="s">
+      <c r="J156" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K156" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L156" t="n">
@@ -4685,28 +4709,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="s" s="3">
+      <c r="A158" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B158" t="s" s="3">
+      <c r="B158" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C158" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D158" t="s" s="3">
+      <c r="C158" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D158" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E158" t="s" s="3">
+      <c r="E158" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F158" t="s" s="3">
+      <c r="F158" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G158" t="s" s="3">
+      <c r="G158" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H158" t="s" s="3">
+      <c r="H158" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4731,28 +4755,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C160" t="s" s="3">
+      <c r="C160" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D160" t="s" s="3">
+      <c r="D160" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I160" t="s" s="3">
+      <c r="I160" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4840,10 +4864,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="3" t="s">
+      <c r="J163" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4887,28 +4911,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="3">
+      <c r="A165" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="3">
+      <c r="B165" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="3">
+      <c r="C165" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="3">
+      <c r="E165" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="3">
+      <c r="F165" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="3">
+      <c r="G165" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="3">
+      <c r="H165" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4933,28 +4957,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="3">
+      <c r="B167" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="3">
+      <c r="C167" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="3">
+      <c r="D167" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="3">
+      <c r="E167" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="3">
+      <c r="F167" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="3">
+      <c r="G167" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="3">
+      <c r="H167" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="3">
+      <c r="I167" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5042,10 +5066,10 @@
       <c r="I170">
         <f>((C170-C169)^2+(D170- D169)^2)^.5</f>
       </c>
-      <c r="J170" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K170" s="3" t="s">
+      <c r="J170" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K170" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L170" t="n">
@@ -5089,28 +5113,28 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="s" s="3">
+      <c r="A172" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B172" t="s" s="3">
+      <c r="B172" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C172" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D172" t="s" s="3">
+      <c r="C172" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D172" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E172" t="s" s="3">
+      <c r="E172" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F172" t="s" s="3">
+      <c r="F172" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G172" t="s" s="3">
+      <c r="G172" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H172" t="s" s="3">
+      <c r="H172" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5135,28 +5159,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="B174" t="s" s="3">
+      <c r="B174" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C174" t="s" s="3">
+      <c r="C174" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D174" t="s" s="3">
+      <c r="D174" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E174" t="s" s="3">
+      <c r="E174" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F174" t="s" s="3">
+      <c r="F174" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G174" t="s" s="3">
+      <c r="G174" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H174" t="s" s="3">
+      <c r="H174" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I174" t="s" s="3">
+      <c r="I174" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5244,10 +5268,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="3" t="s">
+      <c r="J177" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5291,28 +5315,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="3">
+      <c r="A179" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="3">
+      <c r="C179" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5337,28 +5361,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="3">
+      <c r="C181" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="3">
+      <c r="D181" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="3">
+      <c r="I181" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5446,10 +5470,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="3" t="s">
+      <c r="J184" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5493,28 +5517,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="3">
+      <c r="A186" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="3">
+      <c r="B186" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="3">
+      <c r="C186" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="3">
+      <c r="E186" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="3">
+      <c r="F186" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="3">
+      <c r="G186" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="3">
+      <c r="H186" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5539,28 +5563,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="3">
+      <c r="B188" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="3">
+      <c r="C188" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="3">
+      <c r="D188" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="3">
+      <c r="E188" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="3">
+      <c r="F188" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="3">
+      <c r="G188" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="3">
+      <c r="H188" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="3">
+      <c r="I188" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5648,10 +5672,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="3" t="s">
+      <c r="J191" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5695,28 +5719,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="3">
+      <c r="A193" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="3">
+      <c r="B193" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="3">
+      <c r="C193" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="3">
+      <c r="E193" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="3">
+      <c r="F193" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="3">
+      <c r="G193" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="3">
+      <c r="H193" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5741,28 +5765,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="3">
+      <c r="B195" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="3">
+      <c r="C195" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="3">
+      <c r="D195" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="3">
+      <c r="E195" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="3">
+      <c r="F195" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="3">
+      <c r="G195" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="3">
+      <c r="H195" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="3">
+      <c r="I195" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5850,10 +5874,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="3" t="s">
+      <c r="J198" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5897,28 +5921,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="3">
+      <c r="A200" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="3">
+      <c r="C200" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5943,28 +5967,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="3">
+      <c r="C202" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="3">
+      <c r="D202" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="3">
+      <c r="I202" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6052,10 +6076,10 @@
       <c r="I205">
         <f>((C205-C204)^2+(D205- D204)^2)^.5</f>
       </c>
-      <c r="J205" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K205" s="3" t="s">
+      <c r="J205" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K205" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L205" t="n">
@@ -6099,28 +6123,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="s" s="3">
+      <c r="A207" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B207" t="s" s="3">
+      <c r="B207" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C207" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D207" t="s" s="3">
+      <c r="C207" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D207" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E207" t="s" s="3">
+      <c r="E207" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F207" t="s" s="3">
+      <c r="F207" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G207" t="s" s="3">
+      <c r="G207" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H207" t="s" s="3">
+      <c r="H207" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6145,28 +6169,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="B209" t="s" s="3">
+      <c r="B209" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C209" t="s" s="3">
+      <c r="C209" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D209" t="s" s="3">
+      <c r="D209" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E209" t="s" s="3">
+      <c r="E209" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F209" t="s" s="3">
+      <c r="F209" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G209" t="s" s="3">
+      <c r="G209" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H209" t="s" s="3">
+      <c r="H209" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I209" t="s" s="3">
+      <c r="I209" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6254,10 +6278,10 @@
       <c r="I212">
         <f>((C212-C211)^2+(D212- D211)^2)^.5</f>
       </c>
-      <c r="J212" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K212" s="3" t="s">
+      <c r="J212" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K212" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L212" t="n">
@@ -6301,28 +6325,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="s" s="3">
+      <c r="A214" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C214" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D214" t="s" s="3">
+      <c r="C214" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D214" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6347,28 +6371,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="B216" t="s" s="3">
+      <c r="B216" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C216" t="s" s="3">
+      <c r="C216" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D216" t="s" s="3">
+      <c r="D216" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E216" t="s" s="3">
+      <c r="E216" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F216" t="s" s="3">
+      <c r="F216" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G216" t="s" s="3">
+      <c r="G216" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H216" t="s" s="3">
+      <c r="H216" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I216" t="s" s="3">
+      <c r="I216" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6456,10 +6480,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="3" t="s">
+      <c r="J219" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6503,28 +6527,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="3">
+      <c r="A221" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="3">
+      <c r="C221" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6549,28 +6573,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="3">
+      <c r="B223" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="3">
+      <c r="C223" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="3">
+      <c r="D223" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="3">
+      <c r="E223" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="3">
+      <c r="F223" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="3">
+      <c r="G223" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="3">
+      <c r="H223" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="3">
+      <c r="I223" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6658,10 +6682,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="3" t="s">
+      <c r="J226" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6705,28 +6729,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="3">
+      <c r="A228" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="3">
+      <c r="B228" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="3">
+      <c r="C228" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="3">
+      <c r="E228" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="3">
+      <c r="F228" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="3">
+      <c r="G228" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="3">
+      <c r="H228" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6751,28 +6775,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="3">
+      <c r="B230" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="3">
+      <c r="C230" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="3">
+      <c r="D230" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="3">
+      <c r="E230" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="3">
+      <c r="F230" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="3">
+      <c r="G230" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="3">
+      <c r="H230" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="3">
+      <c r="I230" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6860,10 +6884,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="3" t="s">
+      <c r="J233" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6907,28 +6931,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="3">
+      <c r="A235" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="3">
+      <c r="B235" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="3">
+      <c r="C235" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="3">
+      <c r="E235" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="3">
+      <c r="F235" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="3">
+      <c r="G235" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="3">
+      <c r="H235" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6953,28 +6977,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="3">
+      <c r="B237" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="3">
+      <c r="C237" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="3">
+      <c r="D237" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="3">
+      <c r="E237" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="3">
+      <c r="F237" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="3">
+      <c r="G237" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="3">
+      <c r="H237" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="3">
+      <c r="I237" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7062,10 +7086,10 @@
       <c r="I240">
         <f>((C240-C239)^2+(D240- D239)^2)^.5</f>
       </c>
-      <c r="J240" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K240" s="3" t="s">
+      <c r="J240" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K240" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L240" t="n">
@@ -7109,28 +7133,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="s" s="3">
+      <c r="A242" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C242" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D242" t="s" s="3">
+      <c r="C242" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D242" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7155,28 +7179,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="B244" t="s" s="3">
+      <c r="B244" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C244" t="s" s="3">
+      <c r="C244" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D244" t="s" s="3">
+      <c r="D244" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E244" t="s" s="3">
+      <c r="E244" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F244" t="s" s="3">
+      <c r="F244" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G244" t="s" s="3">
+      <c r="G244" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H244" t="s" s="3">
+      <c r="H244" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I244" t="s" s="3">
+      <c r="I244" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7264,10 +7288,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="3" t="s">
+      <c r="J247" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7311,28 +7335,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="3">
+      <c r="A249" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="3">
+      <c r="B249" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="3">
+      <c r="C249" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="3">
+      <c r="E249" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="3">
+      <c r="F249" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="3">
+      <c r="G249" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="3">
+      <c r="H249" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7357,28 +7381,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="3">
+      <c r="B251" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="3">
+      <c r="C251" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="3">
+      <c r="D251" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="3">
+      <c r="E251" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="3">
+      <c r="F251" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="3">
+      <c r="G251" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="3">
+      <c r="H251" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="3">
+      <c r="I251" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7466,10 +7490,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="3" t="s">
+      <c r="J254" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7513,28 +7537,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="3">
+      <c r="A256" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="3">
+      <c r="B256" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="3">
+      <c r="C256" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="3">
+      <c r="E256" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="3">
+      <c r="F256" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="3">
+      <c r="G256" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="3">
+      <c r="H256" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7559,28 +7583,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="3">
+      <c r="B258" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="3">
+      <c r="C258" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="3">
+      <c r="D258" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="3">
+      <c r="E258" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="3">
+      <c r="F258" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="3">
+      <c r="G258" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="3">
+      <c r="H258" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="3">
+      <c r="I258" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7668,10 +7692,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="3" t="s">
+      <c r="J261" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7715,28 +7739,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="3">
+      <c r="A263" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="3">
+      <c r="B263" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="3">
+      <c r="C263" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="3">
+      <c r="E263" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="3">
+      <c r="F263" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="3">
+      <c r="G263" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="3">
+      <c r="H263" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7761,28 +7785,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="3">
+      <c r="B265" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="3">
+      <c r="C265" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="3">
+      <c r="D265" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="3">
+      <c r="E265" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="3">
+      <c r="F265" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="3">
+      <c r="G265" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="3">
+      <c r="H265" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="3">
+      <c r="I265" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7841,10 +7865,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="3" t="s">
+      <c r="J267" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7888,28 +7912,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="3">
+      <c r="A269" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="3">
+      <c r="B269" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="3">
+      <c r="C269" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="3">
+      <c r="E269" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="3">
+      <c r="F269" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="3">
+      <c r="G269" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="3">
+      <c r="H269" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7934,28 +7958,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="3">
+      <c r="B271" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="3">
+      <c r="C271" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="3">
+      <c r="D271" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="3">
+      <c r="E271" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="3">
+      <c r="F271" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="3">
+      <c r="G271" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="3">
+      <c r="H271" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="3">
+      <c r="I271" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8043,10 +8067,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="3" t="s">
+      <c r="J274" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8090,28 +8114,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="3">
+      <c r="A276" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="3">
+      <c r="B276" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="3">
+      <c r="C276" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="3">
+      <c r="E276" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="3">
+      <c r="F276" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="3">
+      <c r="G276" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="3">
+      <c r="H276" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8136,28 +8160,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="3">
+      <c r="B278" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="3">
+      <c r="C278" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="3">
+      <c r="D278" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="3">
+      <c r="E278" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="3">
+      <c r="F278" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="3">
+      <c r="G278" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="3">
+      <c r="H278" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="3">
+      <c r="I278" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8245,10 +8269,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="3" t="s">
+      <c r="J281" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8292,28 +8316,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="3">
+      <c r="A283" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="3">
+      <c r="B283" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="3">
+      <c r="C283" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="3">
+      <c r="E283" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="3">
+      <c r="F283" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="3">
+      <c r="G283" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="3">
+      <c r="H283" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8338,28 +8362,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="3">
+      <c r="B285" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="3">
+      <c r="C285" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="3">
+      <c r="D285" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="3">
+      <c r="E285" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="3">
+      <c r="F285" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="3">
+      <c r="G285" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="3">
+      <c r="H285" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="3">
+      <c r="I285" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8447,10 +8471,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="3" t="s">
+      <c r="J288" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8494,28 +8518,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="3">
+      <c r="A290" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="3">
+      <c r="B290" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="3">
+      <c r="C290" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="3">
+      <c r="E290" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="3">
+      <c r="F290" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="3">
+      <c r="G290" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="3">
+      <c r="H290" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8540,28 +8564,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="3">
+      <c r="B292" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="3">
+      <c r="C292" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="3">
+      <c r="D292" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="3">
+      <c r="E292" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="3">
+      <c r="F292" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="3">
+      <c r="G292" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="3">
+      <c r="H292" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="3">
+      <c r="I292" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8649,10 +8673,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="3" t="s">
+      <c r="J295" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8696,28 +8720,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="3">
+      <c r="A297" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="3">
+      <c r="B297" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="3">
+      <c r="C297" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="3">
+      <c r="E297" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="3">
+      <c r="F297" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="3">
+      <c r="G297" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="3">
+      <c r="H297" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8742,28 +8766,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="3">
+      <c r="B299" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="3">
+      <c r="C299" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="3">
+      <c r="D299" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="3">
+      <c r="E299" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="3">
+      <c r="F299" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="3">
+      <c r="G299" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="3">
+      <c r="H299" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="3">
+      <c r="I299" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8851,10 +8875,10 @@
       <c r="I302">
         <f>((C302-C301)^2+(D302- D301)^2)^.5</f>
       </c>
-      <c r="J302" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K302" s="3" t="s">
+      <c r="J302" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K302" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L302" t="n">
@@ -8898,28 +8922,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="s" s="3">
+      <c r="A304" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B304" t="s" s="3">
+      <c r="B304" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C304" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D304" t="s" s="3">
+      <c r="C304" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D304" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E304" t="s" s="3">
+      <c r="E304" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F304" t="s" s="3">
+      <c r="F304" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G304" t="s" s="3">
+      <c r="G304" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H304" t="s" s="3">
+      <c r="H304" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8944,28 +8968,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="B306" t="s" s="3">
+      <c r="B306" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C306" t="s" s="3">
+      <c r="C306" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D306" t="s" s="3">
+      <c r="D306" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E306" t="s" s="3">
+      <c r="E306" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F306" t="s" s="3">
+      <c r="F306" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G306" t="s" s="3">
+      <c r="G306" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H306" t="s" s="3">
+      <c r="H306" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I306" t="s" s="3">
+      <c r="I306" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9053,10 +9077,10 @@
       <c r="I309">
         <f>((C309-C308)^2+(D309- D308)^2)^.5</f>
       </c>
-      <c r="J309" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K309" s="3" t="s">
+      <c r="J309" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K309" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L309" t="n">
@@ -9100,28 +9124,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="s" s="3">
+      <c r="A311" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B311" t="s" s="3">
+      <c r="B311" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C311" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D311" t="s" s="3">
+      <c r="C311" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D311" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E311" t="s" s="3">
+      <c r="E311" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F311" t="s" s="3">
+      <c r="F311" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G311" t="s" s="3">
+      <c r="G311" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H311" t="s" s="3">
+      <c r="H311" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9146,28 +9170,28 @@
       </c>
     </row>
     <row r="313">
-      <c r="B313" t="s" s="3">
+      <c r="B313" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C313" t="s" s="3">
+      <c r="C313" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D313" t="s" s="3">
+      <c r="D313" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E313" t="s" s="3">
+      <c r="E313" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F313" t="s" s="3">
+      <c r="F313" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G313" t="s" s="3">
+      <c r="G313" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H313" t="s" s="3">
+      <c r="H313" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I313" t="s" s="3">
+      <c r="I313" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9255,10 +9279,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="3" t="s">
+      <c r="J316" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9302,28 +9326,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="3">
+      <c r="A318" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="3">
+      <c r="B318" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="3">
+      <c r="C318" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="3">
+      <c r="E318" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="3">
+      <c r="F318" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="3">
+      <c r="G318" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="3">
+      <c r="H318" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9348,28 +9372,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="3">
+      <c r="B320" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="3">
+      <c r="C320" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="3">
+      <c r="D320" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="3">
+      <c r="E320" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="3">
+      <c r="F320" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="3">
+      <c r="G320" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="3">
+      <c r="H320" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="3">
+      <c r="I320" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9486,10 +9510,10 @@
       <c r="I324">
         <f>((C324-C323)^2+(D324- D323)^2)^.5</f>
       </c>
-      <c r="J324" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K324" s="3" t="s">
+      <c r="J324" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K324" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L324" t="n">
@@ -9533,28 +9557,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="s" s="3">
+      <c r="A326" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B326" t="s" s="3">
+      <c r="B326" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C326" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D326" t="s" s="3">
+      <c r="C326" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D326" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E326" t="s" s="3">
+      <c r="E326" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F326" t="s" s="3">
+      <c r="F326" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G326" t="s" s="3">
+      <c r="G326" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H326" t="s" s="3">
+      <c r="H326" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9579,28 +9603,28 @@
       </c>
     </row>
     <row r="328">
-      <c r="B328" t="s" s="3">
+      <c r="B328" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C328" t="s" s="3">
+      <c r="C328" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D328" t="s" s="3">
+      <c r="D328" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E328" t="s" s="3">
+      <c r="E328" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F328" t="s" s="3">
+      <c r="F328" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G328" t="s" s="3">
+      <c r="G328" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H328" t="s" s="3">
+      <c r="H328" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I328" t="s" s="3">
+      <c r="I328" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9717,10 +9741,10 @@
       <c r="I332">
         <f>((C332-C331)^2+(D332- D331)^2)^.5</f>
       </c>
-      <c r="J332" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K332" s="3" t="s">
+      <c r="J332" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K332" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L332" t="n">
@@ -9764,28 +9788,28 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="s" s="3">
+      <c r="A334" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B334" t="s" s="3">
+      <c r="B334" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C334" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D334" t="s" s="3">
+      <c r="C334" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D334" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E334" t="s" s="3">
+      <c r="E334" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F334" t="s" s="3">
+      <c r="F334" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G334" t="s" s="3">
+      <c r="G334" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H334" t="s" s="3">
+      <c r="H334" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9810,28 +9834,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="B336" t="s" s="3">
+      <c r="B336" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C336" t="s" s="3">
+      <c r="C336" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D336" t="s" s="3">
+      <c r="D336" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E336" t="s" s="3">
+      <c r="E336" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F336" t="s" s="3">
+      <c r="F336" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G336" t="s" s="3">
+      <c r="G336" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H336" t="s" s="3">
+      <c r="H336" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I336" t="s" s="3">
+      <c r="I336" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9919,10 +9943,10 @@
       <c r="I339">
         <f>((C339-C338)^2+(D339- D338)^2)^.5</f>
       </c>
-      <c r="J339" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K339" s="3" t="s">
+      <c r="J339" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K339" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L339" t="n">
@@ -9966,28 +9990,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="s" s="3">
+      <c r="A341" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B341" t="s" s="3">
+      <c r="B341" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C341" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D341" t="s" s="3">
+      <c r="C341" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D341" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E341" t="s" s="3">
+      <c r="E341" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F341" t="s" s="3">
+      <c r="F341" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G341" t="s" s="3">
+      <c r="G341" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H341" t="s" s="3">
+      <c r="H341" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10012,28 +10036,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="B343" t="s" s="3">
+      <c r="B343" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C343" t="s" s="3">
+      <c r="C343" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D343" t="s" s="3">
+      <c r="D343" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E343" t="s" s="3">
+      <c r="E343" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F343" t="s" s="3">
+      <c r="F343" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G343" t="s" s="3">
+      <c r="G343" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H343" t="s" s="3">
+      <c r="H343" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I343" t="s" s="3">
+      <c r="I343" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10121,10 +10145,10 @@
       <c r="I346">
         <f>((C346-C345)^2+(D346- D345)^2)^.5</f>
       </c>
-      <c r="J346" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K346" s="3" t="s">
+      <c r="J346" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K346" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L346" t="n">
